--- a/Code/Results/Cases/Case_5_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48967468088323</v>
+        <v>14.61399645465955</v>
       </c>
       <c r="C2">
-        <v>15.22288658281314</v>
+        <v>7.967680387001399</v>
       </c>
       <c r="D2">
-        <v>9.67341441765989</v>
+        <v>7.919997271376043</v>
       </c>
       <c r="E2">
-        <v>11.54913474817771</v>
+        <v>10.35691967998542</v>
       </c>
       <c r="F2">
-        <v>63.13792406414991</v>
+        <v>45.35077606733255</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.45903733982065</v>
+        <v>15.76558620686709</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86726751891088</v>
+        <v>14.20314885177125</v>
       </c>
       <c r="C3">
-        <v>14.08913576263373</v>
+        <v>7.550689470232961</v>
       </c>
       <c r="D3">
-        <v>9.181617575283251</v>
+        <v>7.757603831157018</v>
       </c>
       <c r="E3">
-        <v>10.87066311557257</v>
+        <v>10.192126637831</v>
       </c>
       <c r="F3">
-        <v>59.1035560016058</v>
+        <v>43.91823071386094</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.1128798170566</v>
+        <v>15.56563962829293</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82988255115196</v>
+        <v>13.95270309439362</v>
       </c>
       <c r="C4">
-        <v>13.36632013153913</v>
+        <v>7.28749690518789</v>
       </c>
       <c r="D4">
-        <v>8.875392590172812</v>
+        <v>7.656282840507675</v>
       </c>
       <c r="E4">
-        <v>10.44724256333902</v>
+        <v>10.09202247293471</v>
       </c>
       <c r="F4">
-        <v>56.5588486900649</v>
+        <v>43.02161795793959</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25236419242417</v>
+        <v>15.44798760829665</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39636202508597</v>
+        <v>13.85130646400723</v>
       </c>
       <c r="C5">
-        <v>13.06471417811959</v>
+        <v>7.178642268385903</v>
       </c>
       <c r="D5">
-        <v>8.749501169169422</v>
+        <v>7.614621340415807</v>
       </c>
       <c r="E5">
-        <v>10.2729870108317</v>
+        <v>10.0515433978895</v>
       </c>
       <c r="F5">
-        <v>55.50465868981816</v>
+        <v>42.65244284402643</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89281034718831</v>
+        <v>15.40138909386624</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32371415469499</v>
+        <v>13.83451573891822</v>
       </c>
       <c r="C6">
-        <v>13.01419750584154</v>
+        <v>7.160476716383031</v>
       </c>
       <c r="D6">
-        <v>8.728530103236084</v>
+        <v>7.607681964732704</v>
       </c>
       <c r="E6">
-        <v>10.24395016191453</v>
+        <v>10.04484209197425</v>
       </c>
       <c r="F6">
-        <v>55.3285715258332</v>
+        <v>42.5909269977293</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.83256062712739</v>
+        <v>15.39373438137247</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82408009169407</v>
+        <v>13.95133266733582</v>
       </c>
       <c r="C7">
-        <v>13.36228154839911</v>
+        <v>7.286035053115782</v>
       </c>
       <c r="D7">
-        <v>8.873699256051612</v>
+        <v>7.655722442757293</v>
       </c>
       <c r="E7">
-        <v>10.44489935611065</v>
+        <v>10.0914752297896</v>
       </c>
       <c r="F7">
-        <v>56.54470123756272</v>
+        <v>43.01665384794129</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.24755153320397</v>
+        <v>15.44735364028418</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93855992436622</v>
+        <v>14.47208025210429</v>
       </c>
       <c r="C8">
-        <v>14.83728976018438</v>
+        <v>7.825497506956293</v>
       </c>
       <c r="D8">
-        <v>9.504698129052855</v>
+        <v>7.864357575617871</v>
       </c>
       <c r="E8">
-        <v>11.31660622049987</v>
+        <v>10.29990080036252</v>
       </c>
       <c r="F8">
-        <v>61.76069326004977</v>
+        <v>44.86064629784929</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.0017118980831</v>
+        <v>15.69561931726194</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77959008961225</v>
+        <v>15.49905265961384</v>
       </c>
       <c r="C9">
-        <v>17.53591435687997</v>
+        <v>8.835613099371578</v>
       </c>
       <c r="D9">
-        <v>10.71158823330145</v>
+        <v>8.259337938602014</v>
       </c>
       <c r="E9">
-        <v>12.97436853230114</v>
+        <v>10.71529438401304</v>
       </c>
       <c r="F9">
-        <v>71.47746518602808</v>
+        <v>48.32227871434101</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.19013875150356</v>
+        <v>16.2203090866832</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45136087982407</v>
+        <v>16.2462653797859</v>
       </c>
       <c r="C10">
-        <v>19.43028709716993</v>
+        <v>9.649016824642068</v>
       </c>
       <c r="D10">
-        <v>11.58756733939429</v>
+        <v>8.539166244345269</v>
       </c>
       <c r="E10">
-        <v>14.1693938819668</v>
+        <v>11.02202505737253</v>
       </c>
       <c r="F10">
-        <v>78.36266351165968</v>
+        <v>50.74812194904771</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.40943940149393</v>
+        <v>16.6250232440161</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64443460287008</v>
+        <v>16.58255383145425</v>
       </c>
       <c r="C11">
-        <v>20.2814599276264</v>
+        <v>9.998869313032468</v>
       </c>
       <c r="D11">
-        <v>11.9866039005851</v>
+        <v>8.663879833171404</v>
       </c>
       <c r="E11">
-        <v>14.71156148595306</v>
+        <v>11.16137461780933</v>
       </c>
       <c r="F11">
-        <v>81.4605762342977</v>
+        <v>51.82202434326884</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.40085596623593</v>
+        <v>16.81246874501927</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09409793678164</v>
+        <v>16.70922376080208</v>
       </c>
       <c r="C12">
-        <v>20.60316858852067</v>
+        <v>10.1284625450855</v>
       </c>
       <c r="D12">
-        <v>12.13812659116142</v>
+        <v>8.710708272926651</v>
       </c>
       <c r="E12">
-        <v>14.91708591210388</v>
+        <v>11.21407371468427</v>
       </c>
       <c r="F12">
-        <v>82.63117153136476</v>
+        <v>52.22412176610551</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.77457908591585</v>
+        <v>16.88385865377017</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.99732959218455</v>
+        <v>16.68197546769235</v>
       </c>
       <c r="C13">
-        <v>20.53389328664067</v>
+        <v>10.10068057884691</v>
       </c>
       <c r="D13">
-        <v>12.10546850229206</v>
+        <v>8.700641032649143</v>
       </c>
       <c r="E13">
-        <v>14.87280464224694</v>
+        <v>11.2027277864032</v>
       </c>
       <c r="F13">
-        <v>82.37912928628121</v>
+        <v>52.13773048566733</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.6941502713633</v>
+        <v>16.8684665334769</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.68146423125573</v>
+        <v>16.59298941054043</v>
       </c>
       <c r="C14">
-        <v>20.30793338376467</v>
+        <v>10.00958883940207</v>
       </c>
       <c r="D14">
-        <v>11.99905913248234</v>
+        <v>8.667740557828131</v>
       </c>
       <c r="E14">
-        <v>14.7284628270462</v>
+        <v>11.16571184023085</v>
       </c>
       <c r="F14">
-        <v>81.55691609247533</v>
+        <v>51.85519828490906</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.43163062919416</v>
+        <v>16.81833426045351</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48774680726397</v>
+        <v>16.5383906011999</v>
       </c>
       <c r="C15">
-        <v>20.16947733066711</v>
+        <v>9.953416751492657</v>
       </c>
       <c r="D15">
-        <v>11.93394622840069</v>
+        <v>8.647535488905582</v>
       </c>
       <c r="E15">
-        <v>14.64009252731104</v>
+        <v>11.14302819007449</v>
       </c>
       <c r="F15">
-        <v>81.05304167826172</v>
+        <v>51.68153600634559</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.27063814277074</v>
+        <v>16.7876778568237</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37302861519096</v>
+        <v>16.22420174549663</v>
       </c>
       <c r="C16">
-        <v>19.37452113274355</v>
+        <v>9.625748283753479</v>
       </c>
       <c r="D16">
-        <v>11.56152705635041</v>
+        <v>8.530961650494485</v>
       </c>
       <c r="E16">
-        <v>14.13396621090567</v>
+        <v>11.01291081942567</v>
       </c>
       <c r="F16">
-        <v>78.15970993511972</v>
+        <v>50.67731682762388</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.34435561616374</v>
+        <v>16.61283428138539</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68416494078244</v>
+        <v>16.03041517521312</v>
       </c>
       <c r="C17">
-        <v>18.8847157553</v>
+        <v>9.419576630585794</v>
       </c>
       <c r="D17">
-        <v>11.33341115911671</v>
+        <v>8.458766635722899</v>
       </c>
       <c r="E17">
-        <v>13.82336543926775</v>
+        <v>10.93300984206414</v>
       </c>
       <c r="F17">
-        <v>76.37749490957667</v>
+        <v>50.05344450202808</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.77204571429264</v>
+        <v>16.50637739833046</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28577022448318</v>
+        <v>15.91862167939043</v>
       </c>
       <c r="C18">
-        <v>18.60193133542984</v>
+        <v>9.299092943341565</v>
       </c>
       <c r="D18">
-        <v>11.20223137538694</v>
+        <v>8.417000454920617</v>
       </c>
       <c r="E18">
-        <v>13.64454670600259</v>
+        <v>10.88703811801311</v>
       </c>
       <c r="F18">
-        <v>75.34901494807033</v>
+        <v>49.69183718955457</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.44109507234603</v>
+        <v>16.44546478204059</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15047720233129</v>
+        <v>15.88071812535194</v>
       </c>
       <c r="C19">
-        <v>18.50597858432924</v>
+        <v>9.257972703874715</v>
       </c>
       <c r="D19">
-        <v>11.15781195292667</v>
+        <v>8.402818502962269</v>
       </c>
       <c r="E19">
-        <v>13.5839617161312</v>
+        <v>10.87147167780883</v>
       </c>
       <c r="F19">
-        <v>75.00014305689285</v>
+        <v>49.56893687434836</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.32871187826016</v>
+        <v>16.42489772583077</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.75771403293725</v>
+        <v>16.0510796689118</v>
       </c>
       <c r="C20">
-        <v>18.93696026673496</v>
+        <v>9.441720432928031</v>
       </c>
       <c r="D20">
-        <v>11.35768961141464</v>
+        <v>8.466477112935912</v>
       </c>
       <c r="E20">
-        <v>13.85644427071604</v>
+        <v>10.94151728562525</v>
       </c>
       <c r="F20">
-        <v>76.56755099164837</v>
+        <v>50.12014603780022</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.83314665996521</v>
+        <v>16.51767746645624</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77428942621454</v>
+        <v>16.6191462599542</v>
       </c>
       <c r="C21">
-        <v>20.3743115791659</v>
+        <v>10.03642297790318</v>
       </c>
       <c r="D21">
-        <v>12.03029966122794</v>
+        <v>8.677415227164422</v>
       </c>
       <c r="E21">
-        <v>14.77084955240283</v>
+        <v>11.17658654534433</v>
       </c>
       <c r="F21">
-        <v>81.79846584882672</v>
+        <v>51.93831103557767</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.50877702669746</v>
+        <v>16.83304881029606</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08053319152503</v>
+        <v>16.98641298227503</v>
       </c>
       <c r="C22">
-        <v>21.31072649516639</v>
+        <v>10.40826654424318</v>
       </c>
       <c r="D22">
-        <v>12.47254965721403</v>
+        <v>8.812945143224843</v>
       </c>
       <c r="E22">
-        <v>15.37003467969023</v>
+        <v>11.32979350999234</v>
       </c>
       <c r="F22">
-        <v>85.26402347139836</v>
+        <v>53.09985357738969</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.59454506397262</v>
+        <v>17.04150974892217</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38401064502192</v>
+        <v>16.79080907584903</v>
       </c>
       <c r="C23">
-        <v>20.81085672655146</v>
+        <v>10.21134222308647</v>
       </c>
       <c r="D23">
-        <v>12.23613002365588</v>
+        <v>8.740831855208393</v>
       </c>
       <c r="E23">
-        <v>15.04991702736763</v>
+        <v>11.24807677111075</v>
       </c>
       <c r="F23">
-        <v>83.39628071124802</v>
+        <v>52.48245505621434</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.01554911332362</v>
+        <v>16.93005894861458</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72446991080194</v>
+        <v>16.0417384324588</v>
       </c>
       <c r="C24">
-        <v>18.91334429171477</v>
+        <v>9.431715303496803</v>
       </c>
       <c r="D24">
-        <v>11.34671344974518</v>
+        <v>8.462992014939777</v>
       </c>
       <c r="E24">
-        <v>13.84149014076234</v>
+        <v>10.93767117795147</v>
       </c>
       <c r="F24">
-        <v>76.48163883456121</v>
+        <v>50.08999939115579</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.80552897473749</v>
+        <v>16.51256779422907</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76984881374339</v>
+        <v>15.22177272251135</v>
       </c>
       <c r="C25">
-        <v>16.82384956417743</v>
+        <v>8.558233268203578</v>
       </c>
       <c r="D25">
-        <v>10.38772759989976</v>
+        <v>8.154185318953635</v>
       </c>
       <c r="E25">
-        <v>12.53081261889728</v>
+        <v>10.60246756448853</v>
       </c>
       <c r="F25">
-        <v>68.89891031086152</v>
+        <v>47.40489543236756</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.35171417812854</v>
+        <v>16.07470601068318</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.61399645465955</v>
+        <v>21.48967468088329</v>
       </c>
       <c r="C2">
-        <v>7.967680387001399</v>
+        <v>15.22288658281318</v>
       </c>
       <c r="D2">
-        <v>7.919997271376043</v>
+        <v>9.673414417659965</v>
       </c>
       <c r="E2">
-        <v>10.35691967998542</v>
+        <v>11.54913474817771</v>
       </c>
       <c r="F2">
-        <v>45.35077606733255</v>
+        <v>63.13792406415011</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.76558620686709</v>
+        <v>18.45903733982065</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20314885177125</v>
+        <v>19.86726751891091</v>
       </c>
       <c r="C3">
-        <v>7.550689470232961</v>
+        <v>14.08913576263383</v>
       </c>
       <c r="D3">
-        <v>7.757603831157018</v>
+        <v>9.181617575283244</v>
       </c>
       <c r="E3">
-        <v>10.192126637831</v>
+        <v>10.8706631155726</v>
       </c>
       <c r="F3">
-        <v>43.91823071386094</v>
+        <v>59.1035560016057</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.56563962829293</v>
+        <v>17.11287981705663</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.95270309439362</v>
+        <v>18.82988255115205</v>
       </c>
       <c r="C4">
-        <v>7.28749690518789</v>
+        <v>13.36632013153898</v>
       </c>
       <c r="D4">
-        <v>7.656282840507675</v>
+        <v>8.875392590172797</v>
       </c>
       <c r="E4">
-        <v>10.09202247293471</v>
+        <v>10.44724256333905</v>
       </c>
       <c r="F4">
-        <v>43.02161795793959</v>
+        <v>56.55884869006505</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.44798760829665</v>
+        <v>16.25236419242416</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85130646400723</v>
+        <v>18.39636202508589</v>
       </c>
       <c r="C5">
-        <v>7.178642268385903</v>
+        <v>13.06471417811965</v>
       </c>
       <c r="D5">
-        <v>7.614621340415807</v>
+        <v>8.749501169169362</v>
       </c>
       <c r="E5">
-        <v>10.0515433978895</v>
+        <v>10.27298701083171</v>
       </c>
       <c r="F5">
-        <v>42.65244284402643</v>
+        <v>55.50465868981808</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.40138909386624</v>
+        <v>15.8928103471883</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.83451573891822</v>
+        <v>18.32371415469503</v>
       </c>
       <c r="C6">
-        <v>7.160476716383031</v>
+        <v>13.01419750584154</v>
       </c>
       <c r="D6">
-        <v>7.607681964732704</v>
+        <v>8.728530103236054</v>
       </c>
       <c r="E6">
-        <v>10.04484209197425</v>
+        <v>10.24395016191452</v>
       </c>
       <c r="F6">
-        <v>42.5909269977293</v>
+        <v>55.32857152583313</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.39373438137247</v>
+        <v>15.83256062712738</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.95133266733582</v>
+        <v>18.82408009169392</v>
       </c>
       <c r="C7">
-        <v>7.286035053115782</v>
+        <v>13.36228154839926</v>
       </c>
       <c r="D7">
-        <v>7.655722442757293</v>
+        <v>8.873699256051626</v>
       </c>
       <c r="E7">
-        <v>10.0914752297896</v>
+        <v>10.44489935611064</v>
       </c>
       <c r="F7">
-        <v>43.01665384794129</v>
+        <v>56.54470123756261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.44735364028418</v>
+        <v>16.24755153320391</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.47208025210429</v>
+        <v>20.9385599243661</v>
       </c>
       <c r="C8">
-        <v>7.825497506956293</v>
+        <v>14.83728976018437</v>
       </c>
       <c r="D8">
-        <v>7.864357575617871</v>
+        <v>9.504698129052835</v>
       </c>
       <c r="E8">
-        <v>10.29990080036252</v>
+        <v>11.31660622049982</v>
       </c>
       <c r="F8">
-        <v>44.86064629784929</v>
+        <v>61.76069326004929</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.69561931726194</v>
+        <v>18.00171189808311</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.49905265961384</v>
+        <v>24.77959008961225</v>
       </c>
       <c r="C9">
-        <v>8.835613099371578</v>
+        <v>17.53591435687984</v>
       </c>
       <c r="D9">
-        <v>8.259337938602014</v>
+        <v>10.7115882333015</v>
       </c>
       <c r="E9">
-        <v>10.71529438401304</v>
+        <v>12.97436853230113</v>
       </c>
       <c r="F9">
-        <v>48.32227871434101</v>
+        <v>71.47746518602783</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.2203090866832</v>
+        <v>21.19013875150361</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.2462653797859</v>
+        <v>27.45136087982399</v>
       </c>
       <c r="C10">
-        <v>9.649016824642068</v>
+        <v>19.43028709716975</v>
       </c>
       <c r="D10">
-        <v>8.539166244345269</v>
+        <v>11.58756733939433</v>
       </c>
       <c r="E10">
-        <v>11.02202505737253</v>
+        <v>14.16939388196683</v>
       </c>
       <c r="F10">
-        <v>50.74812194904771</v>
+        <v>78.36266351165995</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.6250232440161</v>
+        <v>23.40943940149393</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.58255383145425</v>
+        <v>28.64443460287011</v>
       </c>
       <c r="C11">
-        <v>9.998869313032468</v>
+        <v>20.28145992762652</v>
       </c>
       <c r="D11">
-        <v>8.663879833171404</v>
+        <v>11.98660390058503</v>
       </c>
       <c r="E11">
-        <v>11.16137461780933</v>
+        <v>14.71156148595306</v>
       </c>
       <c r="F11">
-        <v>51.82202434326884</v>
+        <v>81.46057623429758</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.81246874501927</v>
+        <v>24.40085596623597</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.70922376080208</v>
+        <v>29.09409793678157</v>
       </c>
       <c r="C12">
-        <v>10.1284625450855</v>
+        <v>20.60316858852074</v>
       </c>
       <c r="D12">
-        <v>8.710708272926651</v>
+        <v>12.13812659116145</v>
       </c>
       <c r="E12">
-        <v>11.21407371468427</v>
+        <v>14.91708591210389</v>
       </c>
       <c r="F12">
-        <v>52.22412176610551</v>
+        <v>82.63117153136449</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.88385865377017</v>
+        <v>24.77457908591585</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.68197546769235</v>
+        <v>28.99732959218468</v>
       </c>
       <c r="C13">
-        <v>10.10068057884691</v>
+        <v>20.53389328664063</v>
       </c>
       <c r="D13">
-        <v>8.700641032649143</v>
+        <v>12.10546850229206</v>
       </c>
       <c r="E13">
-        <v>11.2027277864032</v>
+        <v>14.87280464224689</v>
       </c>
       <c r="F13">
-        <v>52.13773048566733</v>
+        <v>82.37912928628134</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.8684665334769</v>
+        <v>24.69415027136323</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59298941054043</v>
+        <v>28.68146423125559</v>
       </c>
       <c r="C14">
-        <v>10.00958883940207</v>
+        <v>20.30793338376465</v>
       </c>
       <c r="D14">
-        <v>8.667740557828131</v>
+        <v>11.99905913248233</v>
       </c>
       <c r="E14">
-        <v>11.16571184023085</v>
+        <v>14.7284628270462</v>
       </c>
       <c r="F14">
-        <v>51.85519828490906</v>
+        <v>81.55691609247498</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.81833426045351</v>
+        <v>24.43163062919416</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.5383906011999</v>
+        <v>28.48774680726426</v>
       </c>
       <c r="C15">
-        <v>9.953416751492657</v>
+        <v>20.16947733066715</v>
       </c>
       <c r="D15">
-        <v>8.647535488905582</v>
+        <v>11.9339462284008</v>
       </c>
       <c r="E15">
-        <v>11.14302819007449</v>
+        <v>14.64009252731109</v>
       </c>
       <c r="F15">
-        <v>51.68153600634559</v>
+        <v>81.05304167826229</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.7876778568237</v>
+        <v>24.27063814277079</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.22420174549663</v>
+        <v>27.37302861519096</v>
       </c>
       <c r="C16">
-        <v>9.625748283753479</v>
+        <v>19.37452113274384</v>
       </c>
       <c r="D16">
-        <v>8.530961650494485</v>
+        <v>11.56152705635047</v>
       </c>
       <c r="E16">
-        <v>11.01291081942567</v>
+        <v>14.13396621090569</v>
       </c>
       <c r="F16">
-        <v>50.67731682762388</v>
+        <v>78.15970993512008</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.61283428138539</v>
+        <v>23.34435561616379</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.03041517521312</v>
+        <v>26.68416494078248</v>
       </c>
       <c r="C17">
-        <v>9.419576630585794</v>
+        <v>18.88471575529994</v>
       </c>
       <c r="D17">
-        <v>8.458766635722899</v>
+        <v>11.33341115911668</v>
       </c>
       <c r="E17">
-        <v>10.93300984206414</v>
+        <v>13.82336543926782</v>
       </c>
       <c r="F17">
-        <v>50.05344450202808</v>
+        <v>76.3774949095767</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.50637739833046</v>
+        <v>22.77204571429263</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.91862167939043</v>
+        <v>26.28577022448337</v>
       </c>
       <c r="C18">
-        <v>9.299092943341565</v>
+        <v>18.60193133542974</v>
       </c>
       <c r="D18">
-        <v>8.417000454920617</v>
+        <v>11.20223137538701</v>
       </c>
       <c r="E18">
-        <v>10.88703811801311</v>
+        <v>13.64454670600263</v>
       </c>
       <c r="F18">
-        <v>49.69183718955457</v>
+        <v>75.34901494807073</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.44546478204059</v>
+        <v>22.44109507234608</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.88071812535194</v>
+        <v>26.15047720233142</v>
       </c>
       <c r="C19">
-        <v>9.257972703874715</v>
+        <v>18.50597858432927</v>
       </c>
       <c r="D19">
-        <v>8.402818502962269</v>
+        <v>11.15781195292664</v>
       </c>
       <c r="E19">
-        <v>10.87147167780883</v>
+        <v>13.58396171613126</v>
       </c>
       <c r="F19">
-        <v>49.56893687434836</v>
+        <v>75.00014305689355</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.42489772583077</v>
+        <v>22.3287118782602</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.0510796689118</v>
+        <v>26.75771403293727</v>
       </c>
       <c r="C20">
-        <v>9.441720432928031</v>
+        <v>18.93696026673507</v>
       </c>
       <c r="D20">
-        <v>8.466477112935912</v>
+        <v>11.35768961141464</v>
       </c>
       <c r="E20">
-        <v>10.94151728562525</v>
+        <v>13.85644427071599</v>
       </c>
       <c r="F20">
-        <v>50.12014603780022</v>
+        <v>76.56755099164843</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.51767746645624</v>
+        <v>22.83314665996519</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.6191462599542</v>
+        <v>28.77428942621469</v>
       </c>
       <c r="C21">
-        <v>10.03642297790318</v>
+        <v>20.3743115791658</v>
       </c>
       <c r="D21">
-        <v>8.677415227164422</v>
+        <v>12.03029966122786</v>
       </c>
       <c r="E21">
-        <v>11.17658654534433</v>
+        <v>14.77084955240282</v>
       </c>
       <c r="F21">
-        <v>51.93831103557767</v>
+        <v>81.79846584882651</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.83304881029606</v>
+        <v>24.50877702669747</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98641298227503</v>
+        <v>30.08053319152523</v>
       </c>
       <c r="C22">
-        <v>10.40826654424318</v>
+        <v>21.3107264951663</v>
       </c>
       <c r="D22">
-        <v>8.812945143224843</v>
+        <v>12.47254965721423</v>
       </c>
       <c r="E22">
-        <v>11.32979350999234</v>
+        <v>15.37003467969033</v>
       </c>
       <c r="F22">
-        <v>53.09985357738969</v>
+        <v>85.26402347139944</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.04150974892217</v>
+        <v>25.59454506397279</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.79080907584903</v>
+        <v>29.38401064502202</v>
       </c>
       <c r="C23">
-        <v>10.21134222308647</v>
+        <v>20.81085672655147</v>
       </c>
       <c r="D23">
-        <v>8.740831855208393</v>
+        <v>12.23613002365586</v>
       </c>
       <c r="E23">
-        <v>11.24807677111075</v>
+        <v>15.04991702736768</v>
       </c>
       <c r="F23">
-        <v>52.48245505621434</v>
+        <v>83.39628071124817</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.93005894861458</v>
+        <v>25.01554911332368</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0417384324588</v>
+        <v>26.72446991080177</v>
       </c>
       <c r="C24">
-        <v>9.431715303496803</v>
+        <v>18.91334429171473</v>
       </c>
       <c r="D24">
-        <v>8.462992014939777</v>
+        <v>11.34671344974525</v>
       </c>
       <c r="E24">
-        <v>10.93767117795147</v>
+        <v>13.84149014076239</v>
       </c>
       <c r="F24">
-        <v>50.08999939115579</v>
+        <v>76.48163883456137</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.51256779422907</v>
+        <v>22.80552897473747</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22177272251135</v>
+        <v>23.76984881374326</v>
       </c>
       <c r="C25">
-        <v>8.558233268203578</v>
+        <v>16.82384956417769</v>
       </c>
       <c r="D25">
-        <v>8.154185318953635</v>
+        <v>10.38772759989979</v>
       </c>
       <c r="E25">
-        <v>10.60246756448853</v>
+        <v>12.53081261889724</v>
       </c>
       <c r="F25">
-        <v>47.40489543236756</v>
+        <v>68.89891031086168</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.07470601068318</v>
+        <v>20.35171417812847</v>
       </c>
       <c r="N25">
         <v>0</v>
